--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,261 +453,501 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45488</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45502</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45515</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45509</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45522</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>45516</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
+      <c r="C6" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>45530</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>45543</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>45537</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>45544</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>45551</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>45572</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>45599</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>45593</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>45600</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>45607</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>45614</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>45621</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
+      <c r="C24" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,334 +453,260 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -822,7 +748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>20</v>
@@ -833,7 +759,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -844,7 +770,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -855,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>

--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Sales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily PO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged (Optional)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Volume Insights" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Prediction" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +452,6 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Requested_Qty</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -464,9 +460,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -475,9 +468,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -486,9 +476,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -497,9 +484,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -508,9 +492,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -519,9 +500,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -530,9 +508,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -541,9 +516,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -552,9 +524,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +532,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -574,9 +540,6 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -585,9 +548,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -596,9 +556,6 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -607,9 +564,6 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -618,9 +572,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -629,9 +580,6 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -640,9 +588,6 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -651,9 +596,6 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -662,9 +604,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -673,9 +612,6 @@
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -684,9 +620,6 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -695,9 +628,6 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -705,9 +635,6 @@
       </c>
       <c r="B24" t="n">
         <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,62 +659,1120 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PO_Requested_Qty</t>
+          <t>Vendor code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Growth%</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>External ID type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>External ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Model number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merchant SKU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Catalog number</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Accepted quantity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASN quantity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Received quantity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled quantity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to location</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Window start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Window end</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Case size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total requested cost</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total accepted cost</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total received cost</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total cancelled cost</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expected date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Freight terms</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cancellation deadline</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45501.99999999999</v>
-      </c>
-      <c r="B2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5QVZLIGN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>148</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45515.99999999999</v>
-      </c>
-      <c r="B3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5QVZLIGN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>148</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45529.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8V9E8TIH</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>148</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45536.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8V9E8TIH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>GYR3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>148</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>73RFWPFW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>HGR6</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>148</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>73RFWPFW</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>HGR6</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>148</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2ERKMQXA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>148</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>45549</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2ERKMQXA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GIGABYTE B650M C V3 (rev. 1.0) AM5 LGA 1718 AMD B650 M-ATX Motherboard with 5-Year Warranty, DDR5, PCIe 4.0 M.2, PCIe 4.0, USB 3.2 Gen1 Type-C, 1GbE LAN, Q-Flash Plus, EZ-Latch</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>148</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>1480</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>45549</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +1781,383 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,13 +2198,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,13 +2229,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted_Next_Week_PO_Quantity</t>
+          <t>Predicted_Next_Daily_PO_Quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,14 @@
       </c>
       <c r="B24" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,6 +2157,17 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,14 @@
       </c>
       <c r="B25" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,6 +2176,17 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D8WKK29M_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,6 +651,14 @@
       </c>
       <c r="B26" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2187,6 +2195,17 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
